--- a/client/src/assets/excel/nre_3rd_fee_template.xlsx
+++ b/client/src/assets/excel/nre_3rd_fee_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\tx_nre\client\src\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD8969C-53D6-4CDA-843C-4B8A53C378B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217F3ED1-C9CE-4F84-A9C2-227DBEF1F036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data_3rd party Test fee" sheetId="8" r:id="rId1"/>
@@ -275,10 +275,6 @@
     <t>MIL 810H, TP sawtooth 40g, 11ms, Non Op Shock, Method 516.8 Procedure I</t>
   </si>
   <si>
-    <t>Others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SV0834 Wood fixture for SV test</t>
   </si>
   <si>
@@ -337,6 +333,10 @@
   </si>
   <si>
     <t>Sag &amp; Bow measurement(for ENG0014147)</t>
+  </si>
+  <si>
+    <t>PKG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1409,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="31" t="s">
         <v>66</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>67</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>8</v>
@@ -2156,7 +2156,7 @@
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="43"/>
       <c r="C58" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D58" s="23" t="s">
         <v>8</v>
@@ -2169,7 +2169,7 @@
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="43"/>
       <c r="C59" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>8</v>
@@ -2182,7 +2182,7 @@
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="43"/>
       <c r="C60" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>8</v>
@@ -2195,7 +2195,7 @@
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="43"/>
       <c r="C61" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>9</v>
@@ -2208,7 +2208,7 @@
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="43"/>
       <c r="C62" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>9</v>
@@ -2221,7 +2221,7 @@
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="43"/>
       <c r="C63" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D63" s="23" t="s">
         <v>9</v>
@@ -2234,7 +2234,7 @@
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="43"/>
       <c r="C64" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>9</v>
@@ -2247,7 +2247,7 @@
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="43"/>
       <c r="C65" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D65" s="23" t="s">
         <v>9</v>
@@ -2260,7 +2260,7 @@
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="43"/>
       <c r="C66" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="24"/>
@@ -2271,7 +2271,7 @@
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="43"/>
       <c r="C67" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D67" s="23" t="s">
         <v>9</v>
@@ -2284,7 +2284,7 @@
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="43"/>
       <c r="C68" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="24"/>
@@ -2295,7 +2295,7 @@
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="43"/>
       <c r="C69" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D69" s="23" t="s">
         <v>9</v>
@@ -2308,7 +2308,7 @@
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="43"/>
       <c r="C70" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>9</v>
@@ -2321,7 +2321,7 @@
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="43"/>
       <c r="C71" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="24"/>
@@ -2332,7 +2332,7 @@
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="43"/>
       <c r="C72" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>10</v>
@@ -2343,7 +2343,7 @@
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="43"/>
       <c r="C73" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D73" s="23" t="s">
         <v>10</v>
@@ -2354,7 +2354,7 @@
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="43"/>
       <c r="C74" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D74" s="23" t="s">
         <v>5</v>
@@ -2365,7 +2365,7 @@
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="43"/>
       <c r="C75" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D75" s="23" t="s">
         <v>5</v>
@@ -2376,7 +2376,7 @@
     <row r="76" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="44"/>
       <c r="C76" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D76" s="28" t="s">
         <v>5</v>
